--- a/biology/Botanique/Dasylepis_blackii/Dasylepis_blackii.xlsx
+++ b/biology/Botanique/Dasylepis_blackii/Dasylepis_blackii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasylepis blackii (Oliv.) Chipp est une espèce de plantes à fleurs dicotylédones de la famille des Achariaceae et du genre Dasylepis[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasylepis blackii (Oliv.) Chipp est une espèce de plantes à fleurs dicotylédones de la famille des Achariaceae et du genre Dasylepis,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique blackii rend hommage au botaniste australien d'origine écossaise John McConnell Black (en).
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un arbre d’environ 10 à 12 m de haut avec une tige de 1 m de circonférence. Arbuste, il mesure 3 m de haut[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un arbre d’environ 10 à 12 m de haut avec une tige de 1 m de circonférence. Arbuste, il mesure 3 m de haut.
 Son habitat écologique se trouve dans les forêts humides, de 200 à 870 m d’altitude. On le rencontre dans plusieurs pays d’Afrique tropicale.
 </t>
         </is>
@@ -574,13 +590,84 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les synonymes de cette espèce sont les suivants[4]:
- Synonyme homotypique
- Pyramidocarpus blackii Oliv. (1867)
- Synonymes hétérotypiques
-Dasylepis assinensis A. Chev. ex Hutch. &amp; Dalziel (1927)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les synonymes de cette espèce sont les suivants:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dasylepis_blackii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dasylepis_blackii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Synonyme homotypique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pyramidocarpus blackii Oliv. (1867)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dasylepis_blackii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dasylepis_blackii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Synonymes hétérotypiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Dasylepis assinensis A. Chev. ex Hutch. &amp; Dalziel (1927)
 Dasylepis jansii Bamps (1964)</t>
         </is>
       </c>
